--- a/pred_ohlcv/54_21/2019-10-18 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 ZRX ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>29701.2015</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>29700.0029</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>21080.267</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>130.4904000000024</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>19175.9805</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>19416.6345</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>18966.6345</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>18966.6345</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>18058.6451</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>18240.8856</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>18308.27104474394</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>11075.47134474394</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>46893.42474474394</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>17510.05874474394</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>36422.13947415572</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>36417.02867415571</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>39273.39827415571</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>39325.76097415571</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>38833.76097415571</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>38324.57367415571</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>35958.71497415572</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>36453.71497415572</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>35485.11497415572</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>35563.17847415571</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>35563.17847415571</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>35563.17847415571</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>35654.49847415571</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>35101.48457415569</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>37889.60437415569</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>71375.58398517147</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>71375.58398517147</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>70796.00848517146</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>71133.86218517147</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>70945.13888517147</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>72290.45818517148</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>74050.83498517147</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>60811.71838517147</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>60811.71838517147</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>104078.258507998</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>103887.427382998</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>114598.606082998</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>112303.138882998</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>101972.138882998</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>102930.143982998</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>102930.143982998</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>104299.526382998</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>104930.268982998</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>101961.328582998</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>98840.90268299798</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>99383.20158299798</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>99383.20158299798</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>97950.23178299797</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>97769.08618299797</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>97769.08618299797</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>98069.08618299797</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>100345.539282998</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>82869.98038299796</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>58859.67658299796</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-18 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 ZRX ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>29701.2015</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>29700.0029</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>21080.267</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>130.4904000000024</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>19175.9805</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>19416.6345</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>18966.6345</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>18966.6345</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>18058.6451</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>18240.8856</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>18308.27104474394</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>12822.12824474394</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>12022.12824474394</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>46893.42474474394</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3886.553144743946</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4353.948944743946</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4353.948944743946</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4298.082744743945</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4411.303344743945</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4353.914544743945</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>15777.16884474394</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>17510.05874474394</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>17073.19754474394</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>17073.19754474394</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>17308.30414474394</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>22507.87154474394</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>22507.87154474394</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>25203.28924474394</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>25203.28924474394</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>38911.33867415571</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>43341.25767415571</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>36422.13947415572</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>36422.13947415572</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>36417.02867415571</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>39273.39827415571</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>39325.76097415571</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>38833.76097415571</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>38324.57367415571</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>35958.71497415572</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>36453.71497415572</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>35485.11497415572</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>35563.17847415571</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>35563.17847415571</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>35101.48457415569</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>37889.60437415569</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>71375.58398517147</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>71375.58398517147</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>70796.00848517146</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>71133.86218517147</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>70945.13888517147</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>72290.45818517148</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>74050.83498517147</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>60811.71838517147</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>60811.71838517147</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>105814.857907998</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>105664.857907998</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>105694.198607998</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>105694.198607998</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>104078.258507998</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>102130.129407998</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>104148.129407998</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>104328.235807998</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>96662.640495498</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>96662.640495498</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>103887.427382998</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>103887.427382998</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>103887.427382998</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>114598.606082998</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>112303.138882998</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>101972.138882998</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>102930.143982998</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>102930.143982998</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>104299.526382998</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>104930.268982998</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>101961.328582998</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>98840.90268299798</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>99383.20158299798</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>99383.20158299798</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>97950.23178299797</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>97769.08618299797</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>97769.08618299797</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>98069.08618299797</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>100345.539282998</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>82869.98038299796</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
